--- a/Data/03.엑셀자동화/total.xlsx
+++ b/Data/03.엑셀자동화/total.xlsx
@@ -1,34 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="300" yWindow="552" windowWidth="16512" windowHeight="4980"/>
   </bookViews>
   <sheets>
-    <sheet name="total" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="total" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
+  <si>
+    <t>순번</t>
+  </si>
+  <si>
+    <t>제품명</t>
+  </si>
+  <si>
+    <t>가격</t>
+  </si>
+  <si>
+    <t>수량</t>
+  </si>
+  <si>
+    <t>합계</t>
+  </si>
+  <si>
+    <t>게이밍 마우스</t>
+  </si>
+  <si>
+    <t>32인치 모니터</t>
+  </si>
+  <si>
+    <t>기계식 키보드</t>
+  </si>
+  <si>
+    <t>마우스 패드</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +84,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -408,389 +378,341 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>순번</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>제품명</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>가격</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>수량</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>합계</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>게이밍 마우스</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
         <v>40000</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>40000</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:5">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>게이밍 마우스</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
         <v>40000</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>120000</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:5">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>32인치 모니터</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>350000</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>350000</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>1050000</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:5">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>32인치 모니터</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>350000</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>350000</v>
+      </c>
+      <c r="D5">
         <v>5</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>1750000</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:5">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>기계식 키보드</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
         <v>120000</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>120000</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>기계식 키보드</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
         <v>120000</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>480000</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:5">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>기계식 키보드</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
         <v>120000</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>480000</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:5">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>기계식 키보드</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
         <v>120000</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>4</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>480000</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:5">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>32인치 모니터</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>350000</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>350000</v>
+      </c>
+      <c r="D10">
         <v>2</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>700000</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:5">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>기계식 키보드</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
         <v>120000</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>240000</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:5">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>32인치 모니터</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>350000</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>350000</v>
+      </c>
+      <c r="D12">
         <v>3</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>1050000</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:5">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>32인치 모니터</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>350000</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>350000</v>
+      </c>
+      <c r="D13">
         <v>5</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>1750000</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:5">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>32인치 모니터</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>350000</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>350000</v>
+      </c>
+      <c r="D14">
         <v>3</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>1050000</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:5">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>마우스 패드</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
         <v>20000</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>5</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>100000</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:5">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>마우스 패드</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
         <v>20000</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>20000</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:5">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>게이밍 마우스</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
         <v>40000</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>3</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>120000</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:5">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>32인치 모니터</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>350000</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>350000</v>
+      </c>
+      <c r="D18">
         <v>4</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>1400000</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:5">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>32인치 모니터</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>350000</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>350000</v>
+      </c>
+      <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>350000</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>